--- a/biology/Botanique/Reticularia_lycoperdon/Reticularia_lycoperdon.xlsx
+++ b/biology/Botanique/Reticularia_lycoperdon/Reticularia_lycoperdon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reticularia lycoperdon , qui s'est aussi appelé Enteridium lycoperdon, est une espèce de myxomycètes de la famille des Tubiferaceae. 
 Son plasmode forme une masse granuleuse plus ou moins hémisphérique de 5 à 8 cm, blanchâtre, voire métallisée, évoquant les vesses-de-loup, d'où son nom, d'autant que, comme chez celles-ci, l'enveloppe externe éclate à maturité pour libérer une sporée pulvérulente blanche puis vite brunâtre.
 Reticularia lycoperdon se trouve surtout au début du printemps dans les régions tempérées, en forêt humide, voire en ripisylve, sur divers bois pourrissants.
-Il fait partie, avec Fuligo septica, des quelques Myxomycètes réputés comestibles et est encore consommé par les indigènes du Mexique occidental[1].
+Il fait partie, avec Fuligo septica, des quelques Myxomycètes réputés comestibles et est encore consommé par les indigènes du Mexique occidental.
 </t>
         </is>
       </c>
